--- a/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="C2">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="C2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>4</v>

--- a/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="C3">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C3">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="C3">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D3">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="C3">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>3</v>

--- a/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D3">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="C3">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>5</v>

--- a/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="C2">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="C2">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="C2">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>5</v>
